--- a/peizhi.xlsx
+++ b/peizhi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>显卡/价格</t>
   </si>
@@ -31,7 +31,7 @@
     <t>机械硬盘/价格</t>
   </si>
   <si>
-    <t>CPU：英特尔（Intel） i7 8700K</t>
+    <t>CPU：英特尔（Intel） i7 8700K   3599</t>
   </si>
   <si>
     <t>ok</t>
@@ -52,7 +52,7 @@
     <t>希捷2T 399R</t>
   </si>
   <si>
-    <t>主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming</t>
+    <t>主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming   1499</t>
   </si>
   <si>
     <t>GTX1080     4799R</t>
@@ -61,22 +61,25 @@
     <t>i7 8700k  3599R</t>
   </si>
   <si>
-    <t>显卡：映众（Inno3D）GeForce GTX 1070 Ti冰龙版</t>
-  </si>
-  <si>
-    <t>内存：芝奇(G.SKILL)幻光戟系列 DDR4 3200频率 16G(8Gx2)套装</t>
-  </si>
-  <si>
-    <t>固态：三星(SAMSUNG) 960 EVO 250G M.2 NVMe</t>
-  </si>
-  <si>
-    <t>硬盘：希捷(SEAGATE)酷鱼系列 2TB 7200转64M SATA3</t>
-  </si>
-  <si>
-    <t>水冷：酷冷至尊(Cooler Master)MasterLiquid 240（冰神G）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电源：酷冷至尊（CoolerMaster）额定600W MWE600游戏电源  </t>
+    <t>显卡：映众（Inno3D）GeForce GTX 1070 Ti冰龙版   3799</t>
+  </si>
+  <si>
+    <t>内存：芝奇(G.SKILL)幻光戟系列 DDR4 3200频率 16G(8Gx2)套装   1799</t>
+  </si>
+  <si>
+    <t>固态：三星(SAMSUNG) 960 EVO 500G M.2 NVMe   1799</t>
+  </si>
+  <si>
+    <t>硬盘：希捷(SEAGATE)酷鱼系列 2TB 7200转64M 3 SATA3   398</t>
+  </si>
+  <si>
+    <t>水冷：酷冷至尊(Cooler Master)MasterLiquid 240（冰神G）   699</t>
+  </si>
+  <si>
+    <t>电源：酷冷至尊（CoolerMaster）额定600W MWE600游戏电源   399</t>
+  </si>
+  <si>
+    <t>机箱：酷冷至尊(CoolerMaster)MasterBox Pro 5 中塔式机箱   499</t>
   </si>
   <si>
     <t>散热器/价格</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,8 +135,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,134 +272,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,26 +482,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +519,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,30 +550,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -568,11 +558,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,7 +1058,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1235,7 +1238,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1261,19 +1266,19 @@
     </row>
     <row r="11" ht="18.75" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1288,13 +1293,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1311,7 +1316,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>

--- a/peizhi.xlsx
+++ b/peizhi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>显卡/价格</t>
   </si>
@@ -52,7 +52,7 @@
     <t>希捷2T 399R</t>
   </si>
   <si>
-    <t>主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming   1499</t>
+    <t>主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming   800</t>
   </si>
   <si>
     <t>GTX1080     4799R</t>
@@ -67,13 +67,13 @@
     <t>内存：芝奇(G.SKILL)幻光戟系列 DDR4 3200频率 16G(8Gx2)套装   1799</t>
   </si>
   <si>
-    <t>固态：三星(SAMSUNG) 960 EVO 500G M.2 NVMe   1799</t>
+    <t>固态：三星(SAMSUNG) 960 EVO 500G M.2 NVMe  1799</t>
   </si>
   <si>
     <t>硬盘：希捷(SEAGATE)酷鱼系列 2TB 7200转64M 3 SATA3   398</t>
   </si>
   <si>
-    <t>水冷：酷冷至尊(Cooler Master)MasterLiquid 240（冰神G）   699</t>
+    <t>水冷：酷冷至尊（CoolerMaster）冰神240RGB   499</t>
   </si>
   <si>
     <t>电源：酷冷至尊（CoolerMaster）额定600W MWE600游戏电源   399</t>
@@ -82,6 +82,9 @@
     <t>机箱：酷冷至尊(CoolerMaster)MasterBox Pro 5 中塔式机箱   499</t>
   </si>
   <si>
+    <t>风扇：美商海盗船（USCorsair）ML120 PRO LED 磁悬浮高风压量 189</t>
+  </si>
+  <si>
     <t>散热器/价格</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t>固态硬盘/价格</t>
+  </si>
+  <si>
+    <t>共计：13780</t>
   </si>
   <si>
     <t>酷冷至尊(CoolerMaster)MasterBox Pro 5 499R</t>
@@ -114,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,6 +136,95 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,22 +238,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,113 +284,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,32 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -579,6 +574,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1094,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
@@ -1116,7 +1122,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1"/>
@@ -1136,7 +1142,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1"/>
@@ -1255,7 +1261,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1266,21 +1274,23 @@
     </row>
     <row r="11" ht="18.75" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1293,13 +1303,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1316,7 +1326,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>

--- a/peizhi.xlsx
+++ b/peizhi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>显卡/价格</t>
   </si>
@@ -31,7 +31,8 @@
     <t>机械硬盘/价格</t>
   </si>
   <si>
-    <t>CPU：英特尔（Intel） i7 8700K   3599</t>
+    <t>CPU：英特尔（Intel） i7 8700K   3100
+主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming  1299  套装价格</t>
   </si>
   <si>
     <t>ok</t>
@@ -52,7 +53,7 @@
     <t>希捷2T 399R</t>
   </si>
   <si>
-    <t>主板：技嘉（GIGABYTE）Z370 AORUS Ultra Gaming   800</t>
+    <t>显卡：映众（Inno3D）GeForce GTX 1070 Ti冰龙版   3799</t>
   </si>
   <si>
     <t>GTX1080     4799R</t>
@@ -61,9 +62,6 @@
     <t>i7 8700k  3599R</t>
   </si>
   <si>
-    <t>显卡：映众（Inno3D）GeForce GTX 1070 Ti冰龙版   3799</t>
-  </si>
-  <si>
     <t>内存：芝奇(G.SKILL)幻光戟系列 DDR4 3200频率 16G(8Gx2)套装   1799</t>
   </si>
   <si>
@@ -85,6 +83,9 @@
     <t>风扇：美商海盗船（USCorsair）ML120 PRO LED 磁悬浮高风压量 189</t>
   </si>
   <si>
+    <t>共计：13780</t>
+  </si>
+  <si>
     <t>散热器/价格</t>
   </si>
   <si>
@@ -98,9 +99,6 @@
   </si>
   <si>
     <t>固态硬盘/价格</t>
-  </si>
-  <si>
-    <t>共计：13780</t>
   </si>
   <si>
     <t>酷冷至尊(CoolerMaster)MasterBox Pro 5 499R</t>
@@ -120,8 +118,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -142,7 +140,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,135 +282,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -294,19 +292,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,163 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,16 +487,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,39 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,11 +562,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,142 +603,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,7 +1065,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1078,7 +1079,7 @@
     <col min="7" max="7" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:13">
+    <row r="1" ht="37.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1095,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
@@ -1288,9 +1289,6 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1303,13 +1301,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1326,7 +1324,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>

--- a/peizhi.xlsx
+++ b/peizhi.xlsx
@@ -53,7 +53,7 @@
     <t>希捷2T 399R</t>
   </si>
   <si>
-    <t>显卡：映众（Inno3D）GeForce GTX 1070 Ti冰龙版   3799</t>
+    <t>显卡：映众（Inno3D）GeForce GTX 1080冰龙版   4099</t>
   </si>
   <si>
     <t>GTX1080     4799R</t>
@@ -83,7 +83,7 @@
     <t>风扇：美商海盗船（USCorsair）ML120 PRO LED 磁悬浮高风压量 189</t>
   </si>
   <si>
-    <t>共计：13780</t>
+    <t>共计：14080</t>
   </si>
   <si>
     <t>散热器/价格</t>
@@ -119,9 +119,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,6 +139,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,81 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -244,9 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,21 +282,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,12 +292,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,169 +448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,19 +504,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,145 +591,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
